--- a/exercici0.xlsx
+++ b/exercici0.xlsx
@@ -15,11 +15,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>Nom</t>
   </si>
   <si>
+    <t>Leonardo da Vinci</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Isaac Newton</t>
+  </si>
+  <si>
+    <t>Marie Curie</t>
+  </si>
+  <si>
+    <t>Galileo Galilei</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Socrates</t>
+  </si>
+  <si>
+    <t>Alexander the Great</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Hippocrates</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>Sun Tzu</t>
+  </si>
+  <si>
+    <t>Ramses II</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Martin Luther</t>
+  </si>
+  <si>
+    <t>Shakespeare</t>
+  </si>
+  <si>
+    <t>Marco Polo</t>
+  </si>
+  <si>
+    <t>Johannes Gutenberg</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Ferdinand Magellan</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>Catherine the Great</t>
+  </si>
+  <si>
+    <t>Mahatma Gandhi</t>
+  </si>
+  <si>
+    <t>Winston Churchill</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>Napoleon Bonaparte</t>
+  </si>
+  <si>
+    <t>William the Conqueror</t>
+  </si>
+  <si>
+    <t>Identificació</t>
+  </si>
+  <si>
     <t>PR01</t>
   </si>
   <si>
@@ -42,111 +147,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Leonardo da Vinci</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>Galileo Galilei</t>
-  </si>
-  <si>
-    <t>Nikola Tesla</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Plato</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Socrates</t>
-  </si>
-  <si>
-    <t>Alexander the Great</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Hippocrates</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>Sun Tzu</t>
-  </si>
-  <si>
-    <t>Ramses II</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Martin Luther</t>
-  </si>
-  <si>
-    <t>Shakespeare</t>
-  </si>
-  <si>
-    <t>Marco Polo</t>
-  </si>
-  <si>
-    <t>Johannes Gutenberg</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Ferdinand Magellan</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t>Catherine the Great</t>
-  </si>
-  <si>
-    <t>Mahatma Gandhi</t>
-  </si>
-  <si>
-    <t>Winston Churchill</t>
-  </si>
-  <si>
-    <t>Abraham Lincoln</t>
-  </si>
-  <si>
-    <t>Napoleon Bonaparte</t>
-  </si>
-  <si>
-    <t>William the Conqueror</t>
-  </si>
-  <si>
-    <t>Identificació</t>
   </si>
   <si>
     <t>8392</t>
@@ -602,34 +602,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>8.9</v>
@@ -650,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>6.05</v>
@@ -658,7 +634,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -679,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -687,7 +663,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3.5</v>
@@ -708,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>4.58</v>
@@ -716,7 +692,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -737,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -745,7 +721,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>5.9</v>
@@ -766,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>5.03</v>
@@ -774,7 +750,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>4.3</v>
@@ -795,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -803,7 +779,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2.1</v>
@@ -824,7 +800,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -832,7 +808,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -853,7 +829,7 @@
         <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -861,7 +837,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>3.6</v>
@@ -882,7 +858,7 @@
         <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -890,7 +866,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>6.3</v>
@@ -911,7 +887,7 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>7.19</v>
@@ -919,7 +895,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>3.9</v>
@@ -940,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>5.6</v>
@@ -948,7 +924,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>7.9</v>
@@ -969,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>6.890000000000001</v>
@@ -977,7 +953,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -998,7 +974,7 @@
         <v>94</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1006,7 +982,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>7.1</v>
@@ -1027,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>8.609999999999999</v>
@@ -1035,7 +1011,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>6.6</v>
@@ -1056,7 +1032,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>7.74</v>
@@ -1064,7 +1040,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>8.9</v>
@@ -1085,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>7.800000000000001</v>
@@ -1093,7 +1069,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>4.3</v>
@@ -1114,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>4.77</v>
@@ -1122,7 +1098,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -1143,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>4.49</v>
@@ -1151,7 +1127,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>5.3</v>
@@ -1172,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>5.01</v>
@@ -1180,7 +1156,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>5.9</v>
@@ -1201,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>5.5</v>
@@ -1209,7 +1185,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>7.1</v>
@@ -1230,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>7.89</v>
@@ -1238,7 +1214,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>5.5</v>
@@ -1259,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>4.600000000000001</v>
@@ -1267,7 +1243,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>4.9</v>
@@ -1288,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1296,7 +1272,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>3.4</v>
@@ -1317,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>5.34</v>
@@ -1325,7 +1301,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>6.8</v>
@@ -1346,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>4.79</v>
@@ -1354,7 +1330,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>7.9</v>
@@ -1375,7 +1351,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>6.84</v>
@@ -1383,7 +1359,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>5.4</v>
@@ -1404,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>6.63</v>
@@ -1412,7 +1388,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1433,7 +1409,7 @@
         <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1441,7 +1417,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1462,7 +1438,7 @@
         <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1470,7 +1446,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>6.3</v>
@@ -1491,7 +1467,7 @@
         <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>6.890000000000001</v>
@@ -1499,7 +1475,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>4.1</v>
@@ -1520,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>4.800000000000001</v>
@@ -1528,7 +1504,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>5.4</v>
@@ -1549,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1583,31 +1559,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1633,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>6.05</v>
@@ -1662,7 +1638,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1691,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>4.58</v>
@@ -1720,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1749,7 +1725,7 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>5.03</v>
@@ -1778,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1807,7 +1783,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1836,7 +1812,7 @@
         <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1865,7 +1841,7 @@
         <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1894,7 +1870,7 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>7.19</v>
@@ -1923,7 +1899,7 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>5.6</v>
@@ -1952,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>6.890000000000001</v>
@@ -1981,7 +1957,7 @@
         <v>94</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2010,7 +1986,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>8.609999999999999</v>
@@ -2039,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>7.74</v>
@@ -2068,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>7.800000000000001</v>
@@ -2097,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>4.77</v>
@@ -2126,7 +2102,7 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>4.49</v>
@@ -2155,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>5.01</v>
@@ -2184,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>5.5</v>
@@ -2213,7 +2189,7 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>7.89</v>
@@ -2242,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>4.600000000000001</v>
@@ -2271,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2300,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>5.34</v>
@@ -2329,7 +2305,7 @@
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>4.79</v>
@@ -2358,7 +2334,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>6.84</v>
@@ -2387,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>6.63</v>
@@ -2416,7 +2392,7 @@
         <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2445,7 +2421,7 @@
         <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2474,7 +2450,7 @@
         <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>6.890000000000001</v>
@@ -2503,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>4.800000000000001</v>
@@ -2532,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>1</v>

--- a/exercici0.xlsx
+++ b/exercici0.xlsx
@@ -15,11 +15,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
   <si>
     <t>Nom</t>
   </si>
   <si>
+    <t>Identificació</t>
+  </si>
+  <si>
+    <t>PR01</t>
+  </si>
+  <si>
+    <t>PR02</t>
+  </si>
+  <si>
+    <t>PR03</t>
+  </si>
+  <si>
+    <t>PR04</t>
+  </si>
+  <si>
+    <t>EX01</t>
+  </si>
+  <si>
+    <t>%Faltes</t>
+  </si>
+  <si>
+    <t>Vàlid</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Leonardo da Vinci</t>
   </si>
   <si>
@@ -120,33 +147,6 @@
   </si>
   <si>
     <t>William the Conqueror</t>
-  </si>
-  <si>
-    <t>Identificació</t>
-  </si>
-  <si>
-    <t>PR01</t>
-  </si>
-  <si>
-    <t>PR02</t>
-  </si>
-  <si>
-    <t>PR03</t>
-  </si>
-  <si>
-    <t>PR04</t>
-  </si>
-  <si>
-    <t>EX01</t>
-  </si>
-  <si>
-    <t>%Faltes</t>
-  </si>
-  <si>
-    <t>Vàlid</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>8392</t>
@@ -600,12 +600,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>8.9</v>
@@ -626,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>6.05</v>
@@ -634,7 +658,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -655,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -663,7 +687,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>3.5</v>
@@ -684,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>4.58</v>
@@ -692,7 +716,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -713,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -721,7 +745,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>5.9</v>
@@ -742,7 +766,7 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>5.03</v>
@@ -750,7 +774,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>4.3</v>
@@ -771,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -779,7 +803,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2.1</v>
@@ -800,7 +824,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -808,7 +832,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -829,7 +853,7 @@
         <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -837,7 +861,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>3.6</v>
@@ -858,7 +882,7 @@
         <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -866,7 +890,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>6.3</v>
@@ -887,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I11">
         <v>7.19</v>
@@ -895,7 +919,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>3.9</v>
@@ -916,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <v>5.6</v>
@@ -924,7 +948,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>7.9</v>
@@ -945,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>6.890000000000001</v>
@@ -953,7 +977,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -974,7 +998,7 @@
         <v>94</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -982,7 +1006,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>7.1</v>
@@ -1003,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I15">
         <v>8.609999999999999</v>
@@ -1011,7 +1035,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>6.6</v>
@@ -1032,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>7.74</v>
@@ -1040,7 +1064,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>8.9</v>
@@ -1061,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I17">
         <v>7.800000000000001</v>
@@ -1069,7 +1093,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>4.3</v>
@@ -1090,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I18">
         <v>4.77</v>
@@ -1098,7 +1122,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -1119,7 +1143,7 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I19">
         <v>4.49</v>
@@ -1127,7 +1151,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>5.3</v>
@@ -1148,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I20">
         <v>5.01</v>
@@ -1156,7 +1180,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>5.9</v>
@@ -1177,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I21">
         <v>5.5</v>
@@ -1185,7 +1209,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>7.1</v>
@@ -1206,7 +1230,7 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I22">
         <v>7.89</v>
@@ -1214,7 +1238,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>5.5</v>
@@ -1235,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I23">
         <v>4.600000000000001</v>
@@ -1243,7 +1267,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>4.9</v>
@@ -1264,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1272,7 +1296,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>3.4</v>
@@ -1293,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I25">
         <v>5.34</v>
@@ -1301,7 +1325,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>6.8</v>
@@ -1322,7 +1346,7 @@
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I26">
         <v>4.79</v>
@@ -1330,7 +1354,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>7.9</v>
@@ -1351,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I27">
         <v>6.84</v>
@@ -1359,7 +1383,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>5.4</v>
@@ -1380,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I28">
         <v>6.63</v>
@@ -1388,7 +1412,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1409,7 +1433,7 @@
         <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1417,7 +1441,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1438,7 +1462,7 @@
         <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1446,7 +1470,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>6.3</v>
@@ -1467,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I31">
         <v>6.890000000000001</v>
@@ -1475,7 +1499,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>4.1</v>
@@ -1496,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I32">
         <v>4.800000000000001</v>
@@ -1504,7 +1528,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>5.4</v>
@@ -1525,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1559,31 +1583,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1609,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>6.05</v>
@@ -1638,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1667,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>4.58</v>
@@ -1696,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1725,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>5.03</v>
@@ -1754,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1783,7 +1807,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1812,7 +1836,7 @@
         <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1841,7 +1865,7 @@
         <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1870,7 +1894,7 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I11">
         <v>7.19</v>
@@ -1899,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <v>5.6</v>
@@ -1928,7 +1952,7 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>6.890000000000001</v>
@@ -1957,7 +1981,7 @@
         <v>94</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1986,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I15">
         <v>8.609999999999999</v>
@@ -2015,7 +2039,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>7.74</v>
@@ -2044,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I17">
         <v>7.800000000000001</v>
@@ -2073,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I18">
         <v>4.77</v>
@@ -2102,7 +2126,7 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I19">
         <v>4.49</v>
@@ -2131,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I20">
         <v>5.01</v>
@@ -2160,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I21">
         <v>5.5</v>
@@ -2189,7 +2213,7 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I22">
         <v>7.89</v>
@@ -2218,7 +2242,7 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I23">
         <v>4.600000000000001</v>
@@ -2247,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2276,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I25">
         <v>5.34</v>
@@ -2305,7 +2329,7 @@
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I26">
         <v>4.79</v>
@@ -2334,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I27">
         <v>6.84</v>
@@ -2363,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I28">
         <v>6.63</v>
@@ -2392,7 +2416,7 @@
         <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2421,7 +2445,7 @@
         <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2450,7 +2474,7 @@
         <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I31">
         <v>6.890000000000001</v>
@@ -2479,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I32">
         <v>4.800000000000001</v>
@@ -2508,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I33">
         <v>1</v>
